--- a/src/main/resources/dss/test.drl.xlsx
+++ b/src/main/resources/dss/test.drl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Cardiac_diseases\src\main\resources\dss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63238CE3-AFAB-4194-BF14-ABAEFA93BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03061E08-B5A0-4FCF-81D9-725677FC8F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>RuleSet</t>
   </si>
@@ -78,7 +78,10 @@
     <t>$measurement.getVal()</t>
   </si>
   <si>
-    <t>$measurement.getColor()</t>
+    <t>$measurement.getId()</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -485,6 +488,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16.2">
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -494,6 +498,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.2">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -501,6 +506,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="16.2">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -510,11 +516,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="16.2">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -536,6 +544,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.4">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -543,26 +552,31 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="16.2">
+      <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2">
+      <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
